--- a/Code/Results/Cases/Case_4_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036556822478635</v>
+        <v>1.075917653254934</v>
       </c>
       <c r="D2">
-        <v>1.05009579554942</v>
+        <v>1.077441080185268</v>
       </c>
       <c r="E2">
-        <v>1.044505782268282</v>
+        <v>1.079644051196198</v>
       </c>
       <c r="F2">
-        <v>1.052238604232529</v>
+        <v>1.086508070661421</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057535237355639</v>
+        <v>1.056957280067858</v>
       </c>
       <c r="J2">
-        <v>1.057696517145467</v>
+        <v>1.08081971452275</v>
       </c>
       <c r="K2">
-        <v>1.060898695063718</v>
+        <v>1.080122372221687</v>
       </c>
       <c r="L2">
-        <v>1.0553780394362</v>
+        <v>1.082319562943982</v>
       </c>
       <c r="M2">
-        <v>1.063015160050882</v>
+        <v>1.089165734391528</v>
       </c>
       <c r="N2">
-        <v>1.0591985675193</v>
+        <v>1.082354602489127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.04462217393344</v>
+        <v>1.077476754437072</v>
       </c>
       <c r="D3">
-        <v>1.056739029274741</v>
+        <v>1.078733602338909</v>
       </c>
       <c r="E3">
-        <v>1.052088859823226</v>
+        <v>1.081155950515136</v>
       </c>
       <c r="F3">
-        <v>1.059728325866146</v>
+        <v>1.088004396434375</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060867239980664</v>
+        <v>1.057507951031075</v>
       </c>
       <c r="J3">
-        <v>1.063966131619218</v>
+        <v>1.08203561043378</v>
       </c>
       <c r="K3">
-        <v>1.066693963846568</v>
+        <v>1.081231429478976</v>
       </c>
       <c r="L3">
-        <v>1.062095965382067</v>
+        <v>1.083647885778299</v>
       </c>
       <c r="M3">
-        <v>1.069650020376733</v>
+        <v>1.090479826711426</v>
       </c>
       <c r="N3">
-        <v>1.065477085564739</v>
+        <v>1.083572225111815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04967665482663</v>
+        <v>1.078483749226014</v>
       </c>
       <c r="D4">
-        <v>1.060904398912283</v>
+        <v>1.079568180000709</v>
       </c>
       <c r="E4">
-        <v>1.056846122728002</v>
+        <v>1.08213273317307</v>
       </c>
       <c r="F4">
-        <v>1.064428285452251</v>
+        <v>1.088971170208338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062942585689099</v>
+        <v>1.057861897894416</v>
       </c>
       <c r="J4">
-        <v>1.067889673989465</v>
+        <v>1.082820099061313</v>
       </c>
       <c r="K4">
-        <v>1.070319395073749</v>
+        <v>1.081946738484381</v>
       </c>
       <c r="L4">
-        <v>1.066303660809202</v>
+        <v>1.084505370813436</v>
       </c>
       <c r="M4">
-        <v>1.073806662733329</v>
+        <v>1.091328165806895</v>
       </c>
       <c r="N4">
-        <v>1.069406199815187</v>
+        <v>1.084357827803182</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.051764538962976</v>
+        <v>1.078906656432871</v>
       </c>
       <c r="D5">
-        <v>1.062625424726901</v>
+        <v>1.079918619308929</v>
       </c>
       <c r="E5">
-        <v>1.058812372086301</v>
+        <v>1.082543017431431</v>
       </c>
       <c r="F5">
-        <v>1.066371133748638</v>
+        <v>1.089377262772752</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063796728073199</v>
+        <v>1.058010132330279</v>
       </c>
       <c r="J5">
-        <v>1.069509000155918</v>
+        <v>1.083149359873499</v>
       </c>
       <c r="K5">
-        <v>1.071815363671041</v>
+        <v>1.082246904057856</v>
       </c>
       <c r="L5">
-        <v>1.068041129397101</v>
+        <v>1.084865379284689</v>
       </c>
       <c r="M5">
-        <v>1.075523268751245</v>
+        <v>1.0916843439549</v>
       </c>
       <c r="N5">
-        <v>1.071027825610536</v>
+        <v>1.084687556203487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.052112996773331</v>
+        <v>1.078977639259271</v>
       </c>
       <c r="D6">
-        <v>1.06291267723451</v>
+        <v>1.079977435344624</v>
       </c>
       <c r="E6">
-        <v>1.059140594816598</v>
+        <v>1.082611885370039</v>
       </c>
       <c r="F6">
-        <v>1.06669546628986</v>
+        <v>1.089445427839564</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063939094254715</v>
+        <v>1.058034988524886</v>
       </c>
       <c r="J6">
-        <v>1.069779174234595</v>
+        <v>1.083204612854296</v>
       </c>
       <c r="K6">
-        <v>1.072064936961105</v>
+        <v>1.082297271089718</v>
       </c>
       <c r="L6">
-        <v>1.068331065853258</v>
+        <v>1.084925798462034</v>
       </c>
       <c r="M6">
-        <v>1.075809736250005</v>
+        <v>1.091744120854767</v>
       </c>
       <c r="N6">
-        <v>1.071298383367395</v>
+        <v>1.084742887649855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.049704695779967</v>
+        <v>1.078489401824658</v>
       </c>
       <c r="D7">
-        <v>1.060927511330525</v>
+        <v>1.079572864218638</v>
       </c>
       <c r="E7">
-        <v>1.056872525660811</v>
+        <v>1.082138216797001</v>
       </c>
       <c r="F7">
-        <v>1.064454373057784</v>
+        <v>1.088976597759986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062954069581889</v>
+        <v>1.057863880825224</v>
       </c>
       <c r="J7">
-        <v>1.067911427655597</v>
+        <v>1.08282450076655</v>
       </c>
       <c r="K7">
-        <v>1.070339492875906</v>
+        <v>1.081950751466084</v>
       </c>
       <c r="L7">
-        <v>1.066326998137058</v>
+        <v>1.084510183134214</v>
       </c>
       <c r="M7">
-        <v>1.073829718992823</v>
+        <v>1.091332926889531</v>
       </c>
       <c r="N7">
-        <v>1.069427984374021</v>
+        <v>1.084362235759345</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039318040934363</v>
+        <v>1.076444946855246</v>
       </c>
       <c r="D8">
-        <v>1.052369635220442</v>
+        <v>1.07787826478536</v>
       </c>
       <c r="E8">
-        <v>1.047100788930534</v>
+        <v>1.080155323690313</v>
       </c>
       <c r="F8">
-        <v>1.054801383825047</v>
+        <v>1.087014065694139</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058678629176739</v>
+        <v>1.057143875598344</v>
       </c>
       <c r="J8">
-        <v>1.059844093742314</v>
+        <v>1.081231107995954</v>
       </c>
       <c r="K8">
-        <v>1.062884046773254</v>
+        <v>1.080497668581685</v>
       </c>
       <c r="L8">
-        <v>1.057678420121796</v>
+        <v>1.082768900397133</v>
       </c>
       <c r="M8">
-        <v>1.065286881363155</v>
+        <v>1.089610249555251</v>
       </c>
       <c r="N8">
-        <v>1.061349193921245</v>
+        <v>1.08276658018825</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019639920273942</v>
+        <v>1.072827798667251</v>
       </c>
       <c r="D9">
-        <v>1.036178538512123</v>
+        <v>1.074878299906563</v>
       </c>
       <c r="E9">
-        <v>1.028632063539631</v>
+        <v>1.076649228934066</v>
       </c>
       <c r="F9">
-        <v>1.036568437007789</v>
+        <v>1.083544385621846</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050477506422158</v>
+        <v>1.055856792826152</v>
       </c>
       <c r="J9">
-        <v>1.044517707851837</v>
+        <v>1.078405590235939</v>
       </c>
       <c r="K9">
-        <v>1.048710700535884</v>
+        <v>1.077919058013526</v>
       </c>
       <c r="L9">
-        <v>1.041277078499038</v>
+        <v>1.079684666520258</v>
       </c>
       <c r="M9">
-        <v>1.049094825068723</v>
+        <v>1.086559288018947</v>
       </c>
       <c r="N9">
-        <v>1.046001042804843</v>
+        <v>1.079937049868924</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005409886949345</v>
+        <v>1.070406011470404</v>
       </c>
       <c r="D10">
-        <v>1.024493426340031</v>
+        <v>1.072868575061067</v>
       </c>
       <c r="E10">
-        <v>1.015312537859623</v>
+        <v>1.074303265263095</v>
       </c>
       <c r="F10">
-        <v>1.0234284202089</v>
+        <v>1.081223077230624</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044482975060852</v>
+        <v>1.054986181972485</v>
       </c>
       <c r="J10">
-        <v>1.033410496741211</v>
+        <v>1.076509531590343</v>
       </c>
       <c r="K10">
-        <v>1.03843409208122</v>
+        <v>1.076187419510009</v>
       </c>
       <c r="L10">
-        <v>1.029410716160273</v>
+        <v>1.077617370279644</v>
       </c>
       <c r="M10">
-        <v>1.037387170716144</v>
+        <v>1.084514516556759</v>
       </c>
       <c r="N10">
-        <v>1.034878058180425</v>
+        <v>1.078038298602571</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9989346544372689</v>
+        <v>1.069354767889192</v>
       </c>
       <c r="D11">
-        <v>1.019183898686939</v>
+        <v>1.071995934173745</v>
       </c>
       <c r="E11">
-        <v>1.009261647470601</v>
+        <v>1.073285290922532</v>
       </c>
       <c r="F11">
-        <v>1.01746178584519</v>
+        <v>1.080215872842643</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041741330588534</v>
+        <v>1.054606169556463</v>
       </c>
       <c r="J11">
-        <v>1.028351820288466</v>
+        <v>1.075685481869607</v>
       </c>
       <c r="K11">
-        <v>1.033752881457822</v>
+        <v>1.075434531018395</v>
       </c>
       <c r="L11">
-        <v>1.024010991039005</v>
+        <v>1.076719460730531</v>
       </c>
       <c r="M11">
-        <v>1.0320617442301</v>
+        <v>1.083626445350412</v>
       </c>
       <c r="N11">
-        <v>1.029812197826879</v>
+        <v>1.077213078636711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9964773434336633</v>
+        <v>1.068963888522817</v>
       </c>
       <c r="D12">
-        <v>1.017170325240629</v>
+        <v>1.071671425068803</v>
       </c>
       <c r="E12">
-        <v>1.00696702338715</v>
+        <v>1.07290683600602</v>
       </c>
       <c r="F12">
-        <v>1.015199565445968</v>
+        <v>1.079841432847277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04069893426586</v>
+        <v>1.054464556073674</v>
       </c>
       <c r="J12">
-        <v>1.026431540284571</v>
+        <v>1.075378927196914</v>
       </c>
       <c r="K12">
-        <v>1.031975799975074</v>
+        <v>1.075154404519396</v>
       </c>
       <c r="L12">
-        <v>1.021961952479445</v>
+        <v>1.076385513848036</v>
       </c>
       <c r="M12">
-        <v>1.030041246477089</v>
+        <v>1.08329616592812</v>
       </c>
       <c r="N12">
-        <v>1.027889190805118</v>
+        <v>1.076906088621221</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9970068923728345</v>
+        <v>1.069047751783796</v>
       </c>
       <c r="D13">
-        <v>1.017604184057102</v>
+        <v>1.071741050315712</v>
       </c>
       <c r="E13">
-        <v>1.007461436352168</v>
+        <v>1.072988031141067</v>
       </c>
       <c r="F13">
-        <v>1.015686975339454</v>
+        <v>1.079921766107145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040923656149908</v>
+        <v>1.054494953531294</v>
       </c>
       <c r="J13">
-        <v>1.026845381706786</v>
+        <v>1.075444705437615</v>
       </c>
       <c r="K13">
-        <v>1.032358783890403</v>
+        <v>1.075214514007691</v>
       </c>
       <c r="L13">
-        <v>1.022403511062545</v>
+        <v>1.076457165890621</v>
       </c>
       <c r="M13">
-        <v>1.030476638409395</v>
+        <v>1.083367030692191</v>
       </c>
       <c r="N13">
-        <v>1.02830361992962</v>
+        <v>1.076971960274568</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9987326272927041</v>
+        <v>1.06932246591689</v>
       </c>
       <c r="D14">
-        <v>1.019018324464894</v>
+        <v>1.071969117775317</v>
       </c>
       <c r="E14">
-        <v>1.009072961220571</v>
+        <v>1.073254014590629</v>
       </c>
       <c r="F14">
-        <v>1.017275754698241</v>
+        <v>1.080184928087924</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041655669159116</v>
+        <v>1.054594473150266</v>
       </c>
       <c r="J14">
-        <v>1.028193955226088</v>
+        <v>1.075660151519373</v>
       </c>
       <c r="K14">
-        <v>1.03360679022033</v>
+        <v>1.07541138531181</v>
       </c>
       <c r="L14">
-        <v>1.023842526564908</v>
+        <v>1.076691865265334</v>
       </c>
       <c r="M14">
-        <v>1.031895619041277</v>
+        <v>1.083599152770442</v>
       </c>
       <c r="N14">
-        <v>1.029654108578004</v>
+        <v>1.077187712314474</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.999788840156512</v>
+        <v>1.069491672934189</v>
       </c>
       <c r="D15">
-        <v>1.019884015255445</v>
+        <v>1.072109588196414</v>
       </c>
       <c r="E15">
-        <v>1.01005949486485</v>
+        <v>1.07341785122656</v>
       </c>
       <c r="F15">
-        <v>1.018248424951707</v>
+        <v>1.080347028253255</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042103434724218</v>
+        <v>1.054655729391722</v>
       </c>
       <c r="J15">
-        <v>1.029019264187019</v>
+        <v>1.075792832963605</v>
       </c>
       <c r="K15">
-        <v>1.0343705429923</v>
+        <v>1.075532621679999</v>
       </c>
       <c r="L15">
-        <v>1.024723277168875</v>
+        <v>1.076836414930411</v>
       </c>
       <c r="M15">
-        <v>1.032764153894681</v>
+        <v>1.083742116217812</v>
       </c>
       <c r="N15">
-        <v>1.030480589572324</v>
+        <v>1.077320582181576</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005832609438628</v>
+        <v>1.070475723459542</v>
       </c>
       <c r="D16">
-        <v>1.024840223227629</v>
+        <v>1.072926437734638</v>
       </c>
       <c r="E16">
-        <v>1.015707776776459</v>
+        <v>1.074370778585936</v>
       </c>
       <c r="F16">
-        <v>1.023818215189813</v>
+        <v>1.081289877798663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04466168133132</v>
+        <v>1.055011337885748</v>
       </c>
       <c r="J16">
-        <v>1.033740660452667</v>
+        <v>1.076564156192843</v>
       </c>
       <c r="K16">
-        <v>1.038739605689283</v>
+        <v>1.076237320732543</v>
       </c>
       <c r="L16">
-        <v>1.02976323585695</v>
+        <v>1.077676902721415</v>
       </c>
       <c r="M16">
-        <v>1.037734885544566</v>
+        <v>1.084573397875508</v>
       </c>
       <c r="N16">
-        <v>1.03520869076222</v>
+        <v>1.078093000778272</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009536447456841</v>
+        <v>1.071092290190045</v>
       </c>
       <c r="D17">
-        <v>1.027879695620733</v>
+        <v>1.073438172971076</v>
       </c>
       <c r="E17">
-        <v>1.019171950610852</v>
+        <v>1.074967940385948</v>
       </c>
       <c r="F17">
-        <v>1.027234983862767</v>
+        <v>1.081880743479881</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046225932563135</v>
+        <v>1.055233586804461</v>
       </c>
       <c r="J17">
-        <v>1.03663302323794</v>
+        <v>1.077047165899908</v>
       </c>
       <c r="K17">
-        <v>1.041415935095982</v>
+        <v>1.076678530373074</v>
       </c>
       <c r="L17">
-        <v>1.032851974002783</v>
+        <v>1.078203374046666</v>
       </c>
       <c r="M17">
-        <v>1.040781761526563</v>
+        <v>1.085094117392847</v>
       </c>
       <c r="N17">
-        <v>1.038105161034408</v>
+        <v>1.078576696414522</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011666957291816</v>
+        <v>1.071451673622714</v>
       </c>
       <c r="D18">
-        <v>1.029628754155159</v>
+        <v>1.073736426860728</v>
       </c>
       <c r="E18">
-        <v>1.021165529993656</v>
+        <v>1.075316047355702</v>
       </c>
       <c r="F18">
-        <v>1.029201532850347</v>
+        <v>1.082225187081107</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047124406153332</v>
+        <v>1.055362928577604</v>
       </c>
       <c r="J18">
-        <v>1.038296333082214</v>
+        <v>1.077328604192335</v>
       </c>
       <c r="K18">
-        <v>1.042954931034725</v>
+        <v>1.076935584080573</v>
       </c>
       <c r="L18">
-        <v>1.034628653333321</v>
+        <v>1.078510190510195</v>
       </c>
       <c r="M18">
-        <v>1.042534553528301</v>
+        <v>1.08539758710192</v>
       </c>
       <c r="N18">
-        <v>1.039770832969445</v>
+        <v>1.078858534381606</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012388479156517</v>
+        <v>1.07157417209639</v>
       </c>
       <c r="D19">
-        <v>1.030221206642767</v>
+        <v>1.073838084524619</v>
       </c>
       <c r="E19">
-        <v>1.021840832268717</v>
+        <v>1.075434707955574</v>
       </c>
       <c r="F19">
-        <v>1.029867720150175</v>
+        <v>1.082342600091611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047428458913386</v>
+        <v>1.055406981339691</v>
       </c>
       <c r="J19">
-        <v>1.038859556582489</v>
+        <v>1.077424517921941</v>
       </c>
       <c r="K19">
-        <v>1.043476045341185</v>
+        <v>1.077023182710781</v>
       </c>
       <c r="L19">
-        <v>1.035230340265523</v>
+        <v>1.078614762262127</v>
       </c>
       <c r="M19">
-        <v>1.043128182503602</v>
+        <v>1.085501019075213</v>
       </c>
       <c r="N19">
-        <v>1.040334856311693</v>
+        <v>1.07895458431971</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00914218483662</v>
+        <v>1.071026164302686</v>
       </c>
       <c r="D20">
-        <v>1.027556078274462</v>
+        <v>1.07338329274413</v>
       </c>
       <c r="E20">
-        <v>1.018803102023612</v>
+        <v>1.074903892100985</v>
       </c>
       <c r="F20">
-        <v>1.026871156398821</v>
+        <v>1.081817369770155</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046059558009254</v>
+        <v>1.055209771860639</v>
       </c>
       <c r="J20">
-        <v>1.036325183206157</v>
+        <v>1.076995373908379</v>
       </c>
       <c r="K20">
-        <v>1.041131095982342</v>
+        <v>1.076631223470022</v>
       </c>
       <c r="L20">
-        <v>1.032523187599439</v>
+        <v>1.078146916168889</v>
       </c>
       <c r="M20">
-        <v>1.040457410994743</v>
+        <v>1.085038275781617</v>
       </c>
       <c r="N20">
-        <v>1.037796883834469</v>
+        <v>1.078524830872425</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9982259242359607</v>
+        <v>1.069241580601766</v>
       </c>
       <c r="D21">
-        <v>1.018603071365823</v>
+        <v>1.071901967913325</v>
       </c>
       <c r="E21">
-        <v>1.008599745448834</v>
+        <v>1.073175698392116</v>
       </c>
       <c r="F21">
-        <v>1.016809205223232</v>
+        <v>1.080107442339063</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041440791232799</v>
+        <v>1.054565179835388</v>
       </c>
       <c r="J21">
-        <v>1.027798006546128</v>
+        <v>1.07559672094926</v>
       </c>
       <c r="K21">
-        <v>1.033240370732333</v>
+        <v>1.075353424662316</v>
       </c>
       <c r="L21">
-        <v>1.02342000431261</v>
+        <v>1.076622763908077</v>
       </c>
       <c r="M21">
-        <v>1.031478969596312</v>
+        <v>1.083530809999797</v>
       </c>
       <c r="N21">
-        <v>1.029257597605503</v>
+        <v>1.077124191665676</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9910578139212857</v>
+        <v>1.068117218188398</v>
       </c>
       <c r="D22">
-        <v>1.012732213410633</v>
+        <v>1.070968447068106</v>
       </c>
       <c r="E22">
-        <v>1.001909524981499</v>
+        <v>1.072087177478201</v>
       </c>
       <c r="F22">
-        <v>1.010214377396821</v>
+        <v>1.079030490118409</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038396497337033</v>
+        <v>1.054157235900805</v>
       </c>
       <c r="J22">
-        <v>1.022195568495616</v>
+        <v>1.074714632356793</v>
       </c>
       <c r="K22">
-        <v>1.028055593082457</v>
+        <v>1.074547297536566</v>
       </c>
       <c r="L22">
-        <v>1.017443248483552</v>
+        <v>1.075662015240502</v>
       </c>
       <c r="M22">
-        <v>1.025586165377485</v>
+        <v>1.082580628502966</v>
       </c>
       <c r="N22">
-        <v>1.023647203450351</v>
+        <v>1.076240850406231</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9948885202298915</v>
+        <v>1.068713487947366</v>
       </c>
       <c r="D23">
-        <v>1.015868821182096</v>
+        <v>1.071463531022956</v>
       </c>
       <c r="E23">
-        <v>1.005483874240304</v>
+        <v>1.072664409941486</v>
       </c>
       <c r="F23">
-        <v>1.013737494348753</v>
+        <v>1.079601581722378</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040024417373909</v>
+        <v>1.054373748632338</v>
       </c>
       <c r="J23">
-        <v>1.025189809157032</v>
+        <v>1.075182503029835</v>
       </c>
       <c r="K23">
-        <v>1.030826646910711</v>
+        <v>1.074974901637106</v>
       </c>
       <c r="L23">
-        <v>1.020637159049569</v>
+        <v>1.076171561936503</v>
       </c>
       <c r="M23">
-        <v>1.028735008358083</v>
+        <v>1.083084566064946</v>
       </c>
       <c r="N23">
-        <v>1.02664569627695</v>
+        <v>1.076709385509294</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009320427099542</v>
+        <v>1.071056044515934</v>
       </c>
       <c r="D24">
-        <v>1.027702380332081</v>
+        <v>1.073408091475348</v>
       </c>
       <c r="E24">
-        <v>1.01896985197623</v>
+        <v>1.074932833405081</v>
       </c>
       <c r="F24">
-        <v>1.027035635614608</v>
+        <v>1.081846006234785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046134778394235</v>
+        <v>1.055220533711803</v>
       </c>
       <c r="J24">
-        <v>1.036464355997336</v>
+        <v>1.077018777385786</v>
       </c>
       <c r="K24">
-        <v>1.041259870434805</v>
+        <v>1.076652600339244</v>
       </c>
       <c r="L24">
-        <v>1.032671828762425</v>
+        <v>1.078172427873735</v>
       </c>
       <c r="M24">
-        <v>1.040604046147739</v>
+        <v>1.085063508996879</v>
       </c>
       <c r="N24">
-        <v>1.037936254266975</v>
+        <v>1.078548267585454</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024907956816411</v>
+        <v>1.073764701459689</v>
       </c>
       <c r="D25">
-        <v>1.040509732252733</v>
+        <v>1.07565554943525</v>
       </c>
       <c r="E25">
-        <v>1.033570673986595</v>
+        <v>1.077557110863829</v>
       </c>
       <c r="F25">
-        <v>1.041442526258734</v>
+        <v>1.084442788075469</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052684255424468</v>
+        <v>1.056191731076236</v>
       </c>
       <c r="J25">
-        <v>1.048625192748279</v>
+        <v>1.079138203777018</v>
       </c>
       <c r="K25">
-        <v>1.05251012739367</v>
+        <v>1.078587875751756</v>
       </c>
       <c r="L25">
-        <v>1.045669278609732</v>
+        <v>1.080483943826566</v>
       </c>
       <c r="M25">
-        <v>1.053429845442774</v>
+        <v>1.087349904284271</v>
       </c>
       <c r="N25">
-        <v>1.050114360800972</v>
+        <v>1.080670703805263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.075917653254934</v>
+        <v>1.036556822478636</v>
       </c>
       <c r="D2">
-        <v>1.077441080185268</v>
+        <v>1.050095795549421</v>
       </c>
       <c r="E2">
-        <v>1.079644051196198</v>
+        <v>1.044505782268282</v>
       </c>
       <c r="F2">
-        <v>1.086508070661421</v>
+        <v>1.05223860423253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056957280067858</v>
+        <v>1.05753523735564</v>
       </c>
       <c r="J2">
-        <v>1.08081971452275</v>
+        <v>1.057696517145468</v>
       </c>
       <c r="K2">
-        <v>1.080122372221687</v>
+        <v>1.060898695063719</v>
       </c>
       <c r="L2">
-        <v>1.082319562943982</v>
+        <v>1.0553780394362</v>
       </c>
       <c r="M2">
-        <v>1.089165734391528</v>
+        <v>1.063015160050883</v>
       </c>
       <c r="N2">
-        <v>1.082354602489127</v>
+        <v>1.059198567519301</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077476754437072</v>
+        <v>1.044622173933438</v>
       </c>
       <c r="D3">
-        <v>1.078733602338909</v>
+        <v>1.056739029274739</v>
       </c>
       <c r="E3">
-        <v>1.081155950515136</v>
+        <v>1.052088859823224</v>
       </c>
       <c r="F3">
-        <v>1.088004396434375</v>
+        <v>1.059728325866144</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057507951031075</v>
+        <v>1.060867239980662</v>
       </c>
       <c r="J3">
-        <v>1.08203561043378</v>
+        <v>1.063966131619216</v>
       </c>
       <c r="K3">
-        <v>1.081231429478976</v>
+        <v>1.066693963846566</v>
       </c>
       <c r="L3">
-        <v>1.083647885778299</v>
+        <v>1.062095965382065</v>
       </c>
       <c r="M3">
-        <v>1.090479826711426</v>
+        <v>1.069650020376731</v>
       </c>
       <c r="N3">
-        <v>1.083572225111815</v>
+        <v>1.065477085564737</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.078483749226014</v>
+        <v>1.049676654826628</v>
       </c>
       <c r="D4">
-        <v>1.079568180000709</v>
+        <v>1.060904398912281</v>
       </c>
       <c r="E4">
-        <v>1.08213273317307</v>
+        <v>1.056846122727999</v>
       </c>
       <c r="F4">
-        <v>1.088971170208338</v>
+        <v>1.06442828545225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057861897894416</v>
+        <v>1.062942585689098</v>
       </c>
       <c r="J4">
-        <v>1.082820099061313</v>
+        <v>1.067889673989463</v>
       </c>
       <c r="K4">
-        <v>1.081946738484381</v>
+        <v>1.070319395073747</v>
       </c>
       <c r="L4">
-        <v>1.084505370813436</v>
+        <v>1.0663036608092</v>
       </c>
       <c r="M4">
-        <v>1.091328165806895</v>
+        <v>1.073806662733328</v>
       </c>
       <c r="N4">
-        <v>1.084357827803182</v>
+        <v>1.069406199815185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.078906656432871</v>
+        <v>1.051764538962976</v>
       </c>
       <c r="D5">
-        <v>1.079918619308929</v>
+        <v>1.062625424726901</v>
       </c>
       <c r="E5">
-        <v>1.082543017431431</v>
+        <v>1.058812372086301</v>
       </c>
       <c r="F5">
-        <v>1.089377262772752</v>
+        <v>1.066371133748638</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058010132330279</v>
+        <v>1.063796728073199</v>
       </c>
       <c r="J5">
-        <v>1.083149359873499</v>
+        <v>1.069509000155918</v>
       </c>
       <c r="K5">
-        <v>1.082246904057856</v>
+        <v>1.071815363671041</v>
       </c>
       <c r="L5">
-        <v>1.084865379284689</v>
+        <v>1.068041129397101</v>
       </c>
       <c r="M5">
-        <v>1.0916843439549</v>
+        <v>1.075523268751245</v>
       </c>
       <c r="N5">
-        <v>1.084687556203487</v>
+        <v>1.071027825610536</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.078977639259271</v>
+        <v>1.052112996773331</v>
       </c>
       <c r="D6">
-        <v>1.079977435344624</v>
+        <v>1.062912677234511</v>
       </c>
       <c r="E6">
-        <v>1.082611885370039</v>
+        <v>1.059140594816598</v>
       </c>
       <c r="F6">
-        <v>1.089445427839564</v>
+        <v>1.066695466289861</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058034988524886</v>
+        <v>1.063939094254715</v>
       </c>
       <c r="J6">
-        <v>1.083204612854296</v>
+        <v>1.069779174234595</v>
       </c>
       <c r="K6">
-        <v>1.082297271089718</v>
+        <v>1.072064936961105</v>
       </c>
       <c r="L6">
-        <v>1.084925798462034</v>
+        <v>1.068331065853258</v>
       </c>
       <c r="M6">
-        <v>1.091744120854767</v>
+        <v>1.075809736250005</v>
       </c>
       <c r="N6">
-        <v>1.084742887649855</v>
+        <v>1.071298383367395</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.078489401824658</v>
+        <v>1.049704695779968</v>
       </c>
       <c r="D7">
-        <v>1.079572864218638</v>
+        <v>1.060927511330526</v>
       </c>
       <c r="E7">
-        <v>1.082138216797001</v>
+        <v>1.056872525660812</v>
       </c>
       <c r="F7">
-        <v>1.088976597759986</v>
+        <v>1.064454373057785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057863880825224</v>
+        <v>1.062954069581889</v>
       </c>
       <c r="J7">
-        <v>1.08282450076655</v>
+        <v>1.067911427655598</v>
       </c>
       <c r="K7">
-        <v>1.081950751466084</v>
+        <v>1.070339492875906</v>
       </c>
       <c r="L7">
-        <v>1.084510183134214</v>
+        <v>1.066326998137059</v>
       </c>
       <c r="M7">
-        <v>1.091332926889531</v>
+        <v>1.073829718992823</v>
       </c>
       <c r="N7">
-        <v>1.084362235759345</v>
+        <v>1.069427984374022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.076444946855246</v>
+        <v>1.039318040934364</v>
       </c>
       <c r="D8">
-        <v>1.07787826478536</v>
+        <v>1.052369635220444</v>
       </c>
       <c r="E8">
-        <v>1.080155323690313</v>
+        <v>1.047100788930536</v>
       </c>
       <c r="F8">
-        <v>1.087014065694139</v>
+        <v>1.054801383825049</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057143875598344</v>
+        <v>1.05867862917674</v>
       </c>
       <c r="J8">
-        <v>1.081231107995954</v>
+        <v>1.059844093742315</v>
       </c>
       <c r="K8">
-        <v>1.080497668581685</v>
+        <v>1.062884046773255</v>
       </c>
       <c r="L8">
-        <v>1.082768900397133</v>
+        <v>1.057678420121798</v>
       </c>
       <c r="M8">
-        <v>1.089610249555251</v>
+        <v>1.065286881363157</v>
       </c>
       <c r="N8">
-        <v>1.08276658018825</v>
+        <v>1.061349193921246</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.072827798667251</v>
+        <v>1.019639920273945</v>
       </c>
       <c r="D9">
-        <v>1.074878299906563</v>
+        <v>1.036178538512126</v>
       </c>
       <c r="E9">
-        <v>1.076649228934066</v>
+        <v>1.028632063539634</v>
       </c>
       <c r="F9">
-        <v>1.083544385621846</v>
+        <v>1.036568437007792</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055856792826152</v>
+        <v>1.050477506422159</v>
       </c>
       <c r="J9">
-        <v>1.078405590235939</v>
+        <v>1.04451770785184</v>
       </c>
       <c r="K9">
-        <v>1.077919058013526</v>
+        <v>1.048710700535887</v>
       </c>
       <c r="L9">
-        <v>1.079684666520258</v>
+        <v>1.041277078499041</v>
       </c>
       <c r="M9">
-        <v>1.086559288018947</v>
+        <v>1.049094825068726</v>
       </c>
       <c r="N9">
-        <v>1.079937049868924</v>
+        <v>1.046001042804846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.070406011470404</v>
+        <v>1.005409886949347</v>
       </c>
       <c r="D10">
-        <v>1.072868575061067</v>
+        <v>1.024493426340032</v>
       </c>
       <c r="E10">
-        <v>1.074303265263095</v>
+        <v>1.015312537859625</v>
       </c>
       <c r="F10">
-        <v>1.081223077230624</v>
+        <v>1.023428420208901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054986181972485</v>
+        <v>1.044482975060853</v>
       </c>
       <c r="J10">
-        <v>1.076509531590343</v>
+        <v>1.033410496741213</v>
       </c>
       <c r="K10">
-        <v>1.076187419510009</v>
+        <v>1.038434092081221</v>
       </c>
       <c r="L10">
-        <v>1.077617370279644</v>
+        <v>1.029410716160275</v>
       </c>
       <c r="M10">
-        <v>1.084514516556759</v>
+        <v>1.037387170716145</v>
       </c>
       <c r="N10">
-        <v>1.078038298602571</v>
+        <v>1.034878058180426</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.069354767889192</v>
+        <v>0.9989346544372695</v>
       </c>
       <c r="D11">
-        <v>1.071995934173745</v>
+        <v>1.019183898686939</v>
       </c>
       <c r="E11">
-        <v>1.073285290922532</v>
+        <v>1.009261647470602</v>
       </c>
       <c r="F11">
-        <v>1.080215872842643</v>
+        <v>1.01746178584519</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054606169556463</v>
+        <v>1.041741330588534</v>
       </c>
       <c r="J11">
-        <v>1.075685481869607</v>
+        <v>1.028351820288467</v>
       </c>
       <c r="K11">
-        <v>1.075434531018395</v>
+        <v>1.033752881457822</v>
       </c>
       <c r="L11">
-        <v>1.076719460730531</v>
+        <v>1.024010991039005</v>
       </c>
       <c r="M11">
-        <v>1.083626445350412</v>
+        <v>1.0320617442301</v>
       </c>
       <c r="N11">
-        <v>1.077213078636711</v>
+        <v>1.029812197826879</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.068963888522817</v>
+        <v>0.9964773434336623</v>
       </c>
       <c r="D12">
-        <v>1.071671425068803</v>
+        <v>1.017170325240629</v>
       </c>
       <c r="E12">
-        <v>1.07290683600602</v>
+        <v>1.00696702338715</v>
       </c>
       <c r="F12">
-        <v>1.079841432847277</v>
+        <v>1.015199565445967</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054464556073674</v>
+        <v>1.040698934265859</v>
       </c>
       <c r="J12">
-        <v>1.075378927196914</v>
+        <v>1.02643154028457</v>
       </c>
       <c r="K12">
-        <v>1.075154404519396</v>
+        <v>1.031975799975073</v>
       </c>
       <c r="L12">
-        <v>1.076385513848036</v>
+        <v>1.021961952479444</v>
       </c>
       <c r="M12">
-        <v>1.08329616592812</v>
+        <v>1.030041246477088</v>
       </c>
       <c r="N12">
-        <v>1.076906088621221</v>
+        <v>1.027889190805118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.069047751783796</v>
+        <v>0.9970068923728328</v>
       </c>
       <c r="D13">
-        <v>1.071741050315712</v>
+        <v>1.017604184057101</v>
       </c>
       <c r="E13">
-        <v>1.072988031141067</v>
+        <v>1.007461436352166</v>
       </c>
       <c r="F13">
-        <v>1.079921766107145</v>
+        <v>1.015686975339452</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054494953531294</v>
+        <v>1.040923656149907</v>
       </c>
       <c r="J13">
-        <v>1.075444705437615</v>
+        <v>1.026845381706784</v>
       </c>
       <c r="K13">
-        <v>1.075214514007691</v>
+        <v>1.032358783890402</v>
       </c>
       <c r="L13">
-        <v>1.076457165890621</v>
+        <v>1.022403511062543</v>
       </c>
       <c r="M13">
-        <v>1.083367030692191</v>
+        <v>1.030476638409394</v>
       </c>
       <c r="N13">
-        <v>1.076971960274568</v>
+        <v>1.028303619929619</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06932246591689</v>
+        <v>0.9987326272927048</v>
       </c>
       <c r="D14">
-        <v>1.071969117775317</v>
+        <v>1.019018324464895</v>
       </c>
       <c r="E14">
-        <v>1.073254014590629</v>
+        <v>1.009072961220572</v>
       </c>
       <c r="F14">
-        <v>1.080184928087924</v>
+        <v>1.017275754698242</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054594473150266</v>
+        <v>1.041655669159116</v>
       </c>
       <c r="J14">
-        <v>1.075660151519373</v>
+        <v>1.028193955226089</v>
       </c>
       <c r="K14">
-        <v>1.07541138531181</v>
+        <v>1.033606790220331</v>
       </c>
       <c r="L14">
-        <v>1.076691865265334</v>
+        <v>1.023842526564909</v>
       </c>
       <c r="M14">
-        <v>1.083599152770442</v>
+        <v>1.031895619041277</v>
       </c>
       <c r="N14">
-        <v>1.077187712314474</v>
+        <v>1.029654108578005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.069491672934189</v>
+        <v>0.9997888401565113</v>
       </c>
       <c r="D15">
-        <v>1.072109588196414</v>
+        <v>1.019884015255445</v>
       </c>
       <c r="E15">
-        <v>1.07341785122656</v>
+        <v>1.010059494864849</v>
       </c>
       <c r="F15">
-        <v>1.080347028253255</v>
+        <v>1.018248424951706</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054655729391722</v>
+        <v>1.042103434724218</v>
       </c>
       <c r="J15">
-        <v>1.075792832963605</v>
+        <v>1.029019264187018</v>
       </c>
       <c r="K15">
-        <v>1.075532621679999</v>
+        <v>1.034370542992299</v>
       </c>
       <c r="L15">
-        <v>1.076836414930411</v>
+        <v>1.024723277168874</v>
       </c>
       <c r="M15">
-        <v>1.083742116217812</v>
+        <v>1.03276415389468</v>
       </c>
       <c r="N15">
-        <v>1.077320582181576</v>
+        <v>1.030480589572323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.070475723459542</v>
+        <v>1.005832609438629</v>
       </c>
       <c r="D16">
-        <v>1.072926437734638</v>
+        <v>1.024840223227629</v>
       </c>
       <c r="E16">
-        <v>1.074370778585936</v>
+        <v>1.01570777677646</v>
       </c>
       <c r="F16">
-        <v>1.081289877798663</v>
+        <v>1.023818215189813</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055011337885748</v>
+        <v>1.04466168133132</v>
       </c>
       <c r="J16">
-        <v>1.076564156192843</v>
+        <v>1.033740660452668</v>
       </c>
       <c r="K16">
-        <v>1.076237320732543</v>
+        <v>1.038739605689285</v>
       </c>
       <c r="L16">
-        <v>1.077676902721415</v>
+        <v>1.029763235856951</v>
       </c>
       <c r="M16">
-        <v>1.084573397875508</v>
+        <v>1.037734885544567</v>
       </c>
       <c r="N16">
-        <v>1.078093000778272</v>
+        <v>1.035208690762221</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.071092290190045</v>
+        <v>1.009536447456839</v>
       </c>
       <c r="D17">
-        <v>1.073438172971076</v>
+        <v>1.027879695620731</v>
       </c>
       <c r="E17">
-        <v>1.074967940385948</v>
+        <v>1.01917195061085</v>
       </c>
       <c r="F17">
-        <v>1.081880743479881</v>
+        <v>1.027234983862765</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055233586804461</v>
+        <v>1.046225932563134</v>
       </c>
       <c r="J17">
-        <v>1.077047165899908</v>
+        <v>1.036633023237938</v>
       </c>
       <c r="K17">
-        <v>1.076678530373074</v>
+        <v>1.041415935095981</v>
       </c>
       <c r="L17">
-        <v>1.078203374046666</v>
+        <v>1.032851974002781</v>
       </c>
       <c r="M17">
-        <v>1.085094117392847</v>
+        <v>1.040781761526562</v>
       </c>
       <c r="N17">
-        <v>1.078576696414522</v>
+        <v>1.038105161034405</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.071451673622714</v>
+        <v>1.011666957291812</v>
       </c>
       <c r="D18">
-        <v>1.073736426860728</v>
+        <v>1.029628754155156</v>
       </c>
       <c r="E18">
-        <v>1.075316047355702</v>
+        <v>1.021165529993652</v>
       </c>
       <c r="F18">
-        <v>1.082225187081107</v>
+        <v>1.029201532850343</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055362928577604</v>
+        <v>1.04712440615333</v>
       </c>
       <c r="J18">
-        <v>1.077328604192335</v>
+        <v>1.03829633308221</v>
       </c>
       <c r="K18">
-        <v>1.076935584080573</v>
+        <v>1.042954931034721</v>
       </c>
       <c r="L18">
-        <v>1.078510190510195</v>
+        <v>1.034628653333317</v>
       </c>
       <c r="M18">
-        <v>1.08539758710192</v>
+        <v>1.042534553528297</v>
       </c>
       <c r="N18">
-        <v>1.078858534381606</v>
+        <v>1.039770832969441</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.07157417209639</v>
+        <v>1.012388479156517</v>
       </c>
       <c r="D19">
-        <v>1.073838084524619</v>
+        <v>1.030221206642767</v>
       </c>
       <c r="E19">
-        <v>1.075434707955574</v>
+        <v>1.021840832268718</v>
       </c>
       <c r="F19">
-        <v>1.082342600091611</v>
+        <v>1.029867720150175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055406981339691</v>
+        <v>1.047428458913386</v>
       </c>
       <c r="J19">
-        <v>1.077424517921941</v>
+        <v>1.038859556582489</v>
       </c>
       <c r="K19">
-        <v>1.077023182710781</v>
+        <v>1.043476045341186</v>
       </c>
       <c r="L19">
-        <v>1.078614762262127</v>
+        <v>1.035230340265524</v>
       </c>
       <c r="M19">
-        <v>1.085501019075213</v>
+        <v>1.043128182503602</v>
       </c>
       <c r="N19">
-        <v>1.07895458431971</v>
+        <v>1.040334856311693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.071026164302686</v>
+        <v>1.00914218483662</v>
       </c>
       <c r="D20">
-        <v>1.07338329274413</v>
+        <v>1.027556078274462</v>
       </c>
       <c r="E20">
-        <v>1.074903892100985</v>
+        <v>1.018803102023611</v>
       </c>
       <c r="F20">
-        <v>1.081817369770155</v>
+        <v>1.02687115639882</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055209771860639</v>
+        <v>1.046059558009254</v>
       </c>
       <c r="J20">
-        <v>1.076995373908379</v>
+        <v>1.036325183206156</v>
       </c>
       <c r="K20">
-        <v>1.076631223470022</v>
+        <v>1.041131095982342</v>
       </c>
       <c r="L20">
-        <v>1.078146916168889</v>
+        <v>1.032523187599438</v>
       </c>
       <c r="M20">
-        <v>1.085038275781617</v>
+        <v>1.040457410994743</v>
       </c>
       <c r="N20">
-        <v>1.078524830872425</v>
+        <v>1.037796883834469</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.069241580601766</v>
+        <v>0.9982259242359606</v>
       </c>
       <c r="D21">
-        <v>1.071901967913325</v>
+        <v>1.018603071365823</v>
       </c>
       <c r="E21">
-        <v>1.073175698392116</v>
+        <v>1.008599745448834</v>
       </c>
       <c r="F21">
-        <v>1.080107442339063</v>
+        <v>1.016809205223233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054565179835388</v>
+        <v>1.041440791232799</v>
       </c>
       <c r="J21">
-        <v>1.07559672094926</v>
+        <v>1.027798006546129</v>
       </c>
       <c r="K21">
-        <v>1.075353424662316</v>
+        <v>1.033240370732333</v>
       </c>
       <c r="L21">
-        <v>1.076622763908077</v>
+        <v>1.02342000431261</v>
       </c>
       <c r="M21">
-        <v>1.083530809999797</v>
+        <v>1.031478969596312</v>
       </c>
       <c r="N21">
-        <v>1.077124191665676</v>
+        <v>1.029257597605503</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.068117218188398</v>
+        <v>0.9910578139212847</v>
       </c>
       <c r="D22">
-        <v>1.070968447068106</v>
+        <v>1.012732213410632</v>
       </c>
       <c r="E22">
-        <v>1.072087177478201</v>
+        <v>1.001909524981498</v>
       </c>
       <c r="F22">
-        <v>1.079030490118409</v>
+        <v>1.01021437739682</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054157235900805</v>
+        <v>1.038396497337033</v>
       </c>
       <c r="J22">
-        <v>1.074714632356793</v>
+        <v>1.022195568495615</v>
       </c>
       <c r="K22">
-        <v>1.074547297536566</v>
+        <v>1.028055593082457</v>
       </c>
       <c r="L22">
-        <v>1.075662015240502</v>
+        <v>1.017443248483551</v>
       </c>
       <c r="M22">
-        <v>1.082580628502966</v>
+        <v>1.025586165377484</v>
       </c>
       <c r="N22">
-        <v>1.076240850406231</v>
+        <v>1.02364720345035</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.068713487947366</v>
+        <v>0.9948885202298903</v>
       </c>
       <c r="D23">
-        <v>1.071463531022956</v>
+        <v>1.015868821182094</v>
       </c>
       <c r="E23">
-        <v>1.072664409941486</v>
+        <v>1.005483874240304</v>
       </c>
       <c r="F23">
-        <v>1.079601581722378</v>
+        <v>1.013737494348752</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054373748632338</v>
+        <v>1.040024417373908</v>
       </c>
       <c r="J23">
-        <v>1.075182503029835</v>
+        <v>1.025189809157031</v>
       </c>
       <c r="K23">
-        <v>1.074974901637106</v>
+        <v>1.03082664691071</v>
       </c>
       <c r="L23">
-        <v>1.076171561936503</v>
+        <v>1.020637159049568</v>
       </c>
       <c r="M23">
-        <v>1.083084566064946</v>
+        <v>1.028735008358082</v>
       </c>
       <c r="N23">
-        <v>1.076709385509294</v>
+        <v>1.026645696276949</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.071056044515934</v>
+        <v>1.009320427099542</v>
       </c>
       <c r="D24">
-        <v>1.073408091475348</v>
+        <v>1.027702380332081</v>
       </c>
       <c r="E24">
-        <v>1.074932833405081</v>
+        <v>1.01896985197623</v>
       </c>
       <c r="F24">
-        <v>1.081846006234785</v>
+        <v>1.027035635614607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055220533711803</v>
+        <v>1.046134778394235</v>
       </c>
       <c r="J24">
-        <v>1.077018777385786</v>
+        <v>1.036464355997336</v>
       </c>
       <c r="K24">
-        <v>1.076652600339244</v>
+        <v>1.041259870434805</v>
       </c>
       <c r="L24">
-        <v>1.078172427873735</v>
+        <v>1.032671828762424</v>
       </c>
       <c r="M24">
-        <v>1.085063508996879</v>
+        <v>1.040604046147739</v>
       </c>
       <c r="N24">
-        <v>1.078548267585454</v>
+        <v>1.037936254266975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.073764701459689</v>
+        <v>1.024907956816411</v>
       </c>
       <c r="D25">
-        <v>1.07565554943525</v>
+        <v>1.040509732252733</v>
       </c>
       <c r="E25">
-        <v>1.077557110863829</v>
+        <v>1.033570673986595</v>
       </c>
       <c r="F25">
-        <v>1.084442788075469</v>
+        <v>1.041442526258734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056191731076236</v>
+        <v>1.052684255424468</v>
       </c>
       <c r="J25">
-        <v>1.079138203777018</v>
+        <v>1.048625192748279</v>
       </c>
       <c r="K25">
-        <v>1.078587875751756</v>
+        <v>1.052510127393671</v>
       </c>
       <c r="L25">
-        <v>1.080483943826566</v>
+        <v>1.045669278609733</v>
       </c>
       <c r="M25">
-        <v>1.087349904284271</v>
+        <v>1.053429845442774</v>
       </c>
       <c r="N25">
-        <v>1.080670703805263</v>
+        <v>1.050114360800972</v>
       </c>
     </row>
   </sheetData>
